--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,21 +52,24 @@
     <t>illegal</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>uncomfortable</t>
+    <t>wrong</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
@@ -88,13 +91,13 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>important</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>social</t>
@@ -458,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,10 +469,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -548,16 +551,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -569,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -598,16 +601,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -619,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -627,13 +630,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9393939393939394</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -645,19 +648,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -669,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -698,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>0.6666666666666666</v>
@@ -727,38 +730,38 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8421052631578947</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="L7">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="M7">
         <v>16</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="L7">
-        <v>34</v>
-      </c>
-      <c r="M7">
-        <v>34</v>
-      </c>
       <c r="N7">
         <v>1</v>
       </c>
@@ -769,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -777,13 +780,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -795,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.5517241379310345</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -819,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -827,13 +830,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.575</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -845,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.5066666666666667</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -869,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -877,13 +880,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5217391304347826</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -895,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.05373406193078324</v>
+        <v>0.06375227686703097</v>
       </c>
       <c r="L10">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="M10">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -919,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1039</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -927,13 +930,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4855072463768116</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -945,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -953,13 +956,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4042553191489361</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -971,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -979,13 +982,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3714285714285714</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -997,7 +1000,33 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
